--- a/Record company/record_company.xlsx
+++ b/Record company/record_company.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,29 +507,31 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Master of Puppets</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>...And Justice for All</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1988</v>
+      </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>...And Justice for All</t>
+          <t>Death Magnetic</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1988</v>
+        <v>2008</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -537,31 +539,31 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Death Magnetic</t>
+          <t>Heliocentric</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Heliocentric</t>
+          <t>Pelagial</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
@@ -569,15 +571,15 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pelagial</t>
+          <t>Anthropocentric</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -585,31 +587,31 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Anthropocentric</t>
+          <t>Resist</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Resist</t>
+          <t>The Unforgiving</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="D11" t="n">
         <v>4</v>
@@ -617,15 +619,15 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The Unforgiving</t>
+          <t>Enter</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="D12" t="n">
         <v>4</v>
@@ -633,31 +635,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Enter</t>
+          <t>The Sound of Perseverance</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The Sound of Perseverance</t>
+          <t>Individual Thought Patterns</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
@@ -665,15 +667,15 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Individual Thought Patterns</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="D15" t="n">
         <v>5</v>
@@ -681,31 +683,31 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>A Storm to Come</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1991</v>
+        <v>2006</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A Storm to Come</t>
+          <t>Break the Silence</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -713,33 +715,17 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Break the Silence</t>
+          <t>Tribe of Force</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Tribe of Force</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D19" t="n">
         <v>6</v>
       </c>
     </row>
